--- a/Desenvolvimento+da+FUNÇÃO+SE/Desenvolvimento da FUN��O SE.xlsx
+++ b/Desenvolvimento+da+FUNÇÃO+SE/Desenvolvimento da FUN��O SE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Power BI Desktop - DAX (Data Analysis Expressions) - Fundamentais - Etapa 2\Seção 2 - Módulo Bônus - EXEL PLENO\ETAPA 02\7 FUNÇÕES LÓGICAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cbb0bfc3935069fc/Documentos/GitHub/Excel/Desenvolvimento^Mda^MFUNÇÃO^MSE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE6A359-29E1-438E-9847-3E50165A8837}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="13_ncr:1_{8CE6A359-29E1-438E-9847-3E50165A8837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{106A433E-1FCF-40DC-AF6C-3C36F4CDE913}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SE1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -57,8 +62,30 @@
 </comments>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="79">
   <si>
     <t>Aluno</t>
   </si>
@@ -319,12 +346,6 @@
   </si>
   <si>
     <t>DATA DO PAGAMENTO</t>
-  </si>
-  <si>
-    <t>JUROS DE 8%</t>
-  </si>
-  <si>
-    <t>DESCONTO DE 7%</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -479,6 +500,18 @@
   </si>
   <si>
     <t>Z</t>
+  </si>
+  <si>
+    <t>Reavaliação</t>
+  </si>
+  <si>
+    <t>Conceito</t>
+  </si>
+  <si>
+    <t>JUROS DE 1%</t>
+  </si>
+  <si>
+    <t>DESCONTO DE 10%</t>
   </si>
 </sst>
 </file>
@@ -820,10 +853,14 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -861,9 +898,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -896,26 +933,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -948,26 +968,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1141,35 +1144,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="9.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1185,8 +1191,20 @@
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1196,10 +1214,28 @@
       <c r="C4" s="2">
         <v>5</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="2">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f>IF(D4&gt;=7,"Aprovado","Reprovado")</f>
+        <v>Aprovado</v>
+      </c>
+      <c r="F4" s="2" t="str">
+        <f>IF(D4&gt;=7,"Aprovado",IF(D4&lt;=4,"Reprovado","Recuperação"))</f>
+        <v>Aprovado</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="I4" s="2" t="str" cm="1">
+        <f t="array" ref="I4">_xlfn.IFS(D4&gt;=7,"Aprovado",D4&lt;=4,"Reprovado",TRUE,"Recuperação")</f>
+        <v>Aprovado</v>
+      </c>
+      <c r="J4" s="2" t="str" cm="1">
+        <f t="array" ref="J4">_xlfn.IFS(D4&gt;=9,"ótimo",D4&gt;=7,"Bom",D4&gt;=6,"Regular",TRUE,"Insuficiente")</f>
+        <v>ótimo</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1209,10 +1245,28 @@
       <c r="C5" s="2">
         <v>8</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="2">
+        <v>8.9</v>
+      </c>
+      <c r="E5" s="2" t="str">
+        <f t="shared" ref="E5:E6" si="0">IF(D5&gt;=7,"Aprovado","Reprovado")</f>
+        <v>Aprovado</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f t="shared" ref="F5:F6" si="1">IF(D5&gt;=7,"Aprovado",IF(D5&lt;=4,"Reprovado","Recuperação"))</f>
+        <v>Aprovado</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="I5" s="2" t="str" cm="1">
+        <f t="array" ref="I5">_xlfn.IFS(D5&gt;=7,"Aprovado",D5&lt;=4,"Reprovado",TRUE,"Recuperação")</f>
+        <v>Aprovado</v>
+      </c>
+      <c r="J5" s="2" t="str" cm="1">
+        <f t="array" ref="J5">_xlfn.IFS(D5&gt;=9,"ótimo",D5&gt;=7,"Bom",D5&gt;=6,"Regular",TRUE,"Insuficiente")</f>
+        <v>Bom</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1222,10 +1276,28 @@
       <c r="C6" s="2">
         <v>8</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="2">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Reprovado</v>
+      </c>
+      <c r="F6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Recuperação</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="I6" s="2" t="str" cm="1">
+        <f t="array" ref="I6">_xlfn.IFS(D6&gt;=7,"Aprovado",D6&lt;=4,"Reprovado",TRUE,"Recuperação")</f>
+        <v>Recuperação</v>
+      </c>
+      <c r="J6" s="2" t="str" cm="1">
+        <f t="array" ref="J6">_xlfn.IFS(D6&gt;=9,"ótimo",D6&gt;=7,"Bom",D6&gt;=6,"Regular",TRUE,"Insuficiente")</f>
+        <v>Regular</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>23</v>
       </c>
@@ -1245,25 +1317,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="171" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1274,39 +1346,48 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2">
         <v>9</v>
       </c>
-      <c r="C3" s="16"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="16" t="str">
+        <f>IF(B3&gt;5,"Veterano","Novato")</f>
+        <v>Veterano</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="2">
         <v>4</v>
       </c>
-      <c r="C4" s="16"/>
+      <c r="C4" s="16" t="str">
+        <f t="shared" ref="C4:C5" si="0">IF(B4&gt;5,"Veterano","Novato")</f>
+        <v>Novato</v>
+      </c>
       <c r="E4" s="18"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="16"/>
+      <c r="C5" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Novato</v>
+      </c>
       <c r="E5" s="18"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E6" s="18"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -1326,25 +1407,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:H10"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView topLeftCell="A3" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1355,34 +1436,43 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="2">
         <v>5</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="str">
+        <f>IF(B4&gt;=18,"Maior","Menor")</f>
+        <v>Maior</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="2">
         <v>64</v>
       </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="str">
+        <f t="shared" ref="C6:C7" si="0">IF(B5&gt;=18,"Maior","Menor")</f>
+        <v>Menor</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="2">
         <v>120</v>
       </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Maior</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
         <v>25</v>
       </c>
@@ -1411,24 +1501,24 @@
   <dimension ref="A4:H21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1439,36 +1529,45 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B6" s="2">
         <v>17</v>
       </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="str">
+        <f>IF(B6&lt;19,"Liberada","Barrada")</f>
+        <v>Liberada</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B7" s="2">
         <v>21</v>
       </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="str">
+        <f t="shared" ref="C7:C8" si="0">IF(B7&lt;19,"Liberada","Barrada")</f>
+        <v>Barrada</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B8" s="2">
         <v>22</v>
       </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Barrada</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -1478,7 +1577,7 @@
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="15"/>
     </row>
   </sheetData>
@@ -1497,20 +1596,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>26</v>
       </c>
@@ -1519,7 +1617,7 @@
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -1536,200 +1634,353 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="7">
+        <f>IF(B3="Carpinteiro",800,IF(B3="Eletricista",850,IF(B3="Encanador",750,IF(B3="Pedreiro",1000,IF(B3="Pintor",500)))))</f>
+        <v>1000</v>
+      </c>
+      <c r="D3" s="8">
+        <f>C3*18%</f>
+        <v>180</v>
+      </c>
+      <c r="E3" s="8">
+        <f>C3-D3</f>
+        <v>820</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="7">
+        <f t="shared" ref="C4:C19" si="0">IF(B4="Carpinteiro",800,IF(B4="Eletricista",850,IF(B4="Encanador",750,IF(B4="Pedreiro",1000,IF(B4="Pintor",500)))))</f>
+        <v>1000</v>
+      </c>
+      <c r="D4" s="8">
+        <f t="shared" ref="D4:D19" si="1">C4*18%</f>
+        <v>180</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" ref="E4:E19" si="2">C4-D4</f>
+        <v>820</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="7">
+        <f t="shared" si="0"/>
+        <v>850</v>
+      </c>
+      <c r="D5" s="8">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="2"/>
+        <v>697</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="7">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="D6" s="8">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="2"/>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="7">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="2"/>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="7">
+        <f t="shared" si="0"/>
+        <v>850</v>
+      </c>
+      <c r="D8" s="8">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="2"/>
+        <v>697</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="7">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="2"/>
+        <v>656</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="7">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="2"/>
+        <v>615</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="7">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" si="2"/>
+        <v>656</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="7">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+      <c r="D12" s="8">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="2"/>
+        <v>615</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="7">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" si="2"/>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="7">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="D14" s="8">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" si="2"/>
+        <v>820</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="7">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+      <c r="D15" s="8">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+      <c r="E15" s="8">
+        <f t="shared" si="2"/>
+        <v>615</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="7">
+        <f t="shared" si="0"/>
+        <v>850</v>
+      </c>
+      <c r="D16" s="8">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+      <c r="E16" s="8">
+        <f t="shared" si="2"/>
+        <v>697</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="7">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="D17" s="8">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="E17" s="8">
+        <f t="shared" si="2"/>
+        <v>656</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="7">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="D18" s="8">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="E18" s="8">
+        <f t="shared" si="2"/>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="7">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="D19" s="8">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="E19" s="8">
+        <f t="shared" si="2"/>
+        <v>820</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
         <v>50</v>
       </c>
       <c r="B21" s="23"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -1737,7 +1988,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1745,7 +1996,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -1753,7 +2004,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1761,7 +2012,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1784,21 +2035,21 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="F4" sqref="F4:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>51</v>
       </c>
@@ -1809,7 +2060,7 @@
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
     </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>52</v>
       </c>
@@ -1823,18 +2074,18 @@
         <v>55</v>
       </c>
       <c r="E3" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="10" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="B4" s="12">
         <v>150</v>
@@ -1845,13 +2096,22 @@
       <c r="D4" s="13">
         <v>41219</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E4" s="14">
+        <f>IF(D4&gt;C4,(D4-C4)*1%*B4,0)</f>
+        <v>1.5</v>
+      </c>
+      <c r="F4" s="14">
+        <f>IF(D4&lt;C4,(B4*10%),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
+        <f>B4+E4-F4</f>
+        <v>151.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5" s="12">
         <v>150</v>
@@ -1862,13 +2122,22 @@
       <c r="D5" s="13">
         <v>41220</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E5" s="14">
+        <f t="shared" ref="E5:E13" si="0">IF(D5&gt;C5,(D5-C5)*1%*B5,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F5" s="14">
+        <f t="shared" ref="F5:F13" si="1">IF(D5&lt;C5,(B5*10%),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="14">
+        <f t="shared" ref="G5:G13" si="2">B5+E5-F5</f>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="12">
         <v>150</v>
@@ -1879,13 +2148,22 @@
       <c r="D6" s="13">
         <v>41221</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E6" s="14">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="14">
+        <f t="shared" si="2"/>
+        <v>154.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B7" s="12">
         <v>150</v>
@@ -1896,13 +2174,22 @@
       <c r="D7" s="13">
         <v>41214</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E7" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G7" s="14">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" s="12">
         <v>150</v>
@@ -1913,13 +2200,22 @@
       <c r="D8" s="13">
         <v>41214</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E8" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G8" s="14">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B9" s="12">
         <v>150</v>
@@ -1930,13 +2226,22 @@
       <c r="D9" s="13">
         <v>41218</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E9" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="14">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="12">
         <v>150</v>
@@ -1947,13 +2252,22 @@
       <c r="D10" s="13">
         <v>41218</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E10" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="14">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" s="12">
         <v>150</v>
@@ -1964,13 +2278,22 @@
       <c r="D11" s="13">
         <v>41218</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B12" s="12">
         <v>150</v>
@@ -1981,13 +2304,22 @@
       <c r="D12" s="13">
         <v>41221</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E12" s="14">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="14">
+        <f t="shared" si="2"/>
+        <v>154.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B13" s="12">
         <v>150</v>
@@ -1998,13 +2330,22 @@
       <c r="D13" s="13">
         <v>41219</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E13" s="14">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="F13" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="14">
+        <f t="shared" si="2"/>
+        <v>151.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
@@ -2013,7 +2354,7 @@
       <c r="F15" s="26"/>
       <c r="G15" s="26"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
@@ -2022,7 +2363,7 @@
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
     </row>
-    <row r="17" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="26"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
@@ -2044,20 +2385,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:H17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.88671875" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="33.5546875" customWidth="1"/>
+    <col min="6" max="6" width="33.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="24" t="s">
         <v>51</v>
       </c>
@@ -2066,7 +2407,7 @@
       <c r="E1" s="24"/>
       <c r="F1" s="24"/>
     </row>
-    <row r="3" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>52</v>
       </c>
@@ -2080,12 +2421,12 @@
         <v>55</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" s="12">
         <v>150</v>
@@ -2096,13 +2437,16 @@
       <c r="E4" s="13">
         <v>41219</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="14">
+        <f>IF(E4&gt;D4,(E4-D4)*0.38%*C4+C4,IF(E4&lt;D4,C4*(1-0.2%),C4))</f>
+        <v>150.57</v>
+      </c>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
     </row>
-    <row r="5" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C5" s="12">
         <v>150</v>
@@ -2113,11 +2457,14 @@
       <c r="E5" s="13">
         <v>41220</v>
       </c>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F5" s="14">
+        <f t="shared" ref="F5:F13" si="0">IF(E5&gt;D5,(E5-D5)*0.38%*C5+C5,IF(E5&lt;D5,C5*(1-0.2%),C5))</f>
+        <v>151.13999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6" s="12">
         <v>150</v>
@@ -2128,11 +2475,14 @@
       <c r="E6" s="13">
         <v>41214</v>
       </c>
-      <c r="F6" s="14"/>
-    </row>
-    <row r="7" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F6" s="14">
+        <f t="shared" si="0"/>
+        <v>149.69999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C7" s="12">
         <v>150</v>
@@ -2143,11 +2493,14 @@
       <c r="E7" s="13">
         <v>41215</v>
       </c>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F7" s="14">
+        <f t="shared" si="0"/>
+        <v>149.69999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C8" s="12">
         <v>150</v>
@@ -2158,11 +2511,14 @@
       <c r="E8" s="13">
         <v>41216</v>
       </c>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F8" s="14">
+        <f t="shared" si="0"/>
+        <v>149.69999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" s="12">
         <v>150</v>
@@ -2173,11 +2529,14 @@
       <c r="E9" s="13">
         <v>41217</v>
       </c>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F9" s="14">
+        <f t="shared" si="0"/>
+        <v>149.69999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C10" s="12">
         <v>150</v>
@@ -2188,11 +2547,14 @@
       <c r="E10" s="13">
         <v>41218</v>
       </c>
-      <c r="F10" s="14"/>
-    </row>
-    <row r="11" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F10" s="14">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C11" s="12">
         <v>150</v>
@@ -2203,11 +2565,14 @@
       <c r="E11" s="13">
         <v>41219</v>
       </c>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F11" s="14">
+        <f t="shared" si="0"/>
+        <v>150.57</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C12" s="12">
         <v>150</v>
@@ -2218,11 +2583,14 @@
       <c r="E12" s="13">
         <v>41220</v>
       </c>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F12" s="14">
+        <f t="shared" si="0"/>
+        <v>151.13999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13" s="12">
         <v>150</v>
@@ -2233,25 +2601,28 @@
       <c r="E13" s="13">
         <v>41221</v>
       </c>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="14">
+        <f t="shared" si="0"/>
+        <v>151.71</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
     </row>
-    <row r="17" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
